--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4359203.777275437</v>
+        <v>4352186.762383726</v>
       </c>
     </row>
     <row r="7">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>331.9419133400789</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>269.2830439063069</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>127.004412707233</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>9.275596830496628</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>283.2502426857016</v>
       </c>
       <c r="D5" t="n">
-        <v>295.9707132341636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.2529242564392</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>151.8562498276748</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>101.5923782051694</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>108.6100941567959</v>
       </c>
       <c r="W10" t="n">
-        <v>99.90187484148903</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417124</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>85.39633870205151</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.1426547140141</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>246.295474232518</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>195.8155841663239</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.526976800218</v>
+        <v>183.4653217847141</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>49.38162151975479</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>91.04645315989224</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>224.8952567231525</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>33.35146980185925</v>
+        <v>174.7430637258772</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>62.07814804603417</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>64.02545868683401</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>25.82923535834103</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>31.78642112991783</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G43" t="n">
-        <v>15.59458547084342</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>143.2925104849746</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>205.4498127649811</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.586886263858</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>549.649320534154</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>549.649320534154</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>542.7038197849505</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1763.586886263858</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1763.586886263858</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1567.641263708175</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C5" t="n">
-        <v>1567.641263708175</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748108</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.241103772296</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>702.6209799070007</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1105.957637232171</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2144.689682991343</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1791.921027721229</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1791.921027721229</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.921027721229</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4886,16 +4886,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>154.8539665087372</v>
+        <v>618.4218183914891</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>618.4218183914891</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>618.4218183914891</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>397.6292392479589</v>
       </c>
     </row>
     <row r="11">
@@ -5020,40 +5020,40 @@
         <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>181.931442514121</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>592.8217113586338</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395484</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>295.0106108202086</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>295.0106108202086</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028589</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,7 +5293,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5302,28 +5302,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,7 +5345,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571612</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636255</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526318</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>994.3109288932103</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>825.3747459653034</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1396.75197286698</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1396.75197286698</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1396.75197286698</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1396.75197286698</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1396.75197286698</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>1396.75197286698</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1396.75197286698</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>1175.95939372345</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619851</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
@@ -5709,16 +5709,16 @@
         <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>737.2189092553931</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>447.8017392184325</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X19" t="n">
-        <v>447.8017392184325</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184325</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,10 +5767,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5779,7 +5779,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5937,22 +5937,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028587</v>
@@ -5980,34 +5980,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,16 +6068,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>154.3878371814093</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>303.4575213834692</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>550.2226492899333</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M24" t="n">
-        <v>857.5427825698951</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
         <v>1661.954360834046</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028587</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>189.1832057632073</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,61 +6451,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>485.520085263587</v>
+        <v>292.8275092861696</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>539.5926371926337</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>846.9127704725952</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.59991596447</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183167</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383447</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324578</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954972</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,7 +6694,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3925.661817631304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3925.661817631304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3925.661817631304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4437.14914771935</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4374.443947672851</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4374.443947672851</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4146.454396774834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3925.661817631304</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6925,22 +6925,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>415.8104215925219</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="C37" t="n">
-        <v>415.8104215925219</v>
+        <v>161.8892719520374</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>161.8892719520374</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>161.8892719520374</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>161.8892719520374</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X37" t="n">
-        <v>415.8104215925219</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y37" t="n">
-        <v>415.8104215925219</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1044.311772267568</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>1012.204276176742</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>784.2147252787242</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7408,16 +7408,16 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2722.801152901742</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3336.698222658631</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3644.018355938592</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3973.880983602625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>726.8250614170374</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>557.8888784891305</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>407.7722390767948</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>259.8591454944017</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>112.9691979964913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>726.8250614170374</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>881.753191430675</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C46" t="n">
-        <v>712.8170085027681</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D46" t="n">
-        <v>562.7003690904323</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1291.391207158932</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1291.391207158932</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1291.391207158932</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>1291.391207158932</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X46" t="n">
-        <v>1063.401656260915</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y46" t="n">
-        <v>1063.401656260915</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>43.65987261462372</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714835</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,25 +9245,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445216</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627447</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>253.7371603504733</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>15.83804904622802</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978191</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>180.0237016735865</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10193,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>199.7396287231148</v>
+        <v>5.100663089359955</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>199.7396287231151</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>63.51748966548462</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.821697689778603</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>5.842169091309984</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>29.89407122271322</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338523</v>
+        <v>14.4554881988891</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>176.3280338692824</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>54.37459486303901</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24657,7 +24657,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>61.34209567542487</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3581855871779</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>190.0594952777938</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>102.4681097765436</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>199.8804200306961</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>254.7365772066732</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G43" t="n">
-        <v>150.8989829925342</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>3.1414521615946</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>16.09774829340816</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>600801.4655374265</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
     <row r="8">
@@ -26316,46 +26316,46 @@
         <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="F2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="H2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="I2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="J2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="K2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="L2" t="n">
+        <v>782058.119475418</v>
+      </c>
+      <c r="M2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="N2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="O2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="G2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="H2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="I2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="J2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="K2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>782058.1194754175</v>
-      </c>
-      <c r="M2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="N2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="O2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="P2" t="n">
-        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>3.137572960064251e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,25 +26426,25 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8560.145664893236</v>
+        <v>-8560.145664893353</v>
       </c>
       <c r="C6" t="n">
-        <v>581407.733549651</v>
+        <v>581407.7335496512</v>
       </c>
       <c r="D6" t="n">
         <v>581407.733549651</v>
       </c>
       <c r="E6" t="n">
-        <v>149865.0874283656</v>
+        <v>148890.4961686442</v>
       </c>
       <c r="F6" t="n">
-        <v>675025.1239052617</v>
+        <v>674050.5326455404</v>
       </c>
       <c r="G6" t="n">
-        <v>675025.1239052622</v>
+        <v>674050.5326455405</v>
       </c>
       <c r="H6" t="n">
-        <v>675025.123905262</v>
+        <v>674050.5326455404</v>
       </c>
       <c r="I6" t="n">
-        <v>675025.1239052621</v>
+        <v>674050.5326455405</v>
       </c>
       <c r="J6" t="n">
-        <v>498601.9047126691</v>
+        <v>497627.3134529475</v>
       </c>
       <c r="K6" t="n">
-        <v>675025.1239052622</v>
+        <v>674050.5326455402</v>
       </c>
       <c r="L6" t="n">
-        <v>675025.1239052619</v>
+        <v>674050.5326455407</v>
       </c>
       <c r="M6" t="n">
-        <v>540224.1086714249</v>
+        <v>539249.5174117032</v>
       </c>
       <c r="N6" t="n">
-        <v>675025.1239052619</v>
+        <v>674050.5326455405</v>
       </c>
       <c r="O6" t="n">
-        <v>675025.1239052622</v>
+        <v>674050.5326455403</v>
       </c>
       <c r="P6" t="n">
-        <v>675025.1239052621</v>
+        <v>674050.5326455402</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.921966200080314e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.921966200080314e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.921966200080314e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>81.84225668071605</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>100.4480567721621</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>85.14112624278593</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114811</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>82.02264908530594</v>
       </c>
       <c r="D5" t="n">
-        <v>58.71232838651935</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>131.0703856053968</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.3317290956556</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>255.0197959140366</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>226.1598802649655</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28016,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>143.5275491670321</v>
       </c>
       <c r="W10" t="n">
-        <v>186.621123495102</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28101,13 +28101,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-9.797032151054893e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.506350599811412e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>85.57005156953046</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.040675600518</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504665</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980132</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091987</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951466</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109124</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>564.1615374009397</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>57.74822800113473</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958063</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178378</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>429.2814066296109</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>350.3150673110541</v>
+        <v>155.6761016772992</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>350.3150673110543</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4352186.762383726</v>
+        <v>4357126.025232757</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>291.2607927468913</v>
       </c>
       <c r="G2" t="n">
-        <v>331.9419133400789</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>127.004412707233</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>283.2502426857016</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>120.1369325735009</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>37.83808333974894</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.2529242564392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>151.8562498276748</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>110.1458031968985</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>108.6100941567959</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>135.1787052649173</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417124</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>45.21952718910648</v>
       </c>
       <c r="H13" t="n">
-        <v>85.39633870205151</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,7 +1824,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>2.496989041814403</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051995</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>195.8155841663239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.4653217847141</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670925</v>
       </c>
       <c r="X25" t="n">
-        <v>49.38162151975479</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="F28" t="n">
-        <v>91.04645315989224</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>174.7430637258772</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>64.02545868683401</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>176.8688121773847</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>122.2151751544596</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>143.2925104849746</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.649320534154</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>549.649320534154</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="D2" t="n">
-        <v>549.649320534154</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="E2" t="n">
-        <v>549.649320534154</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="F2" t="n">
-        <v>542.7038197849505</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4372,10 +4372,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4509,25 +4509,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.48357412947</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4564,7 +4564,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4579,16 +4579,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2344.592476919956</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2090.830691558047</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1759.767804214477</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1759.767804214477</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1759.767804214477</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1369.628472238665</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9725150767609</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C7" t="n">
         <v>520.9725150767609</v>
@@ -4716,61 +4716,61 @@
         <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.6209799070007</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1860.708406770827</v>
+        <v>1689.203741822953</v>
       </c>
       <c r="C8" t="n">
-        <v>1491.745889830415</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>1491.745889830415</v>
+        <v>961.9755262757906</v>
       </c>
       <c r="E8" t="n">
-        <v>1105.957637232171</v>
+        <v>576.1872736775463</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>165.2013688879387</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>2247.308246834948</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.6292392479589</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>397.6292392479589</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>618.4218183914891</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>618.4218183914891</v>
+        <v>591.5848374741946</v>
       </c>
       <c r="X10" t="n">
-        <v>618.4218183914891</v>
+        <v>591.5848374741946</v>
       </c>
       <c r="Y10" t="n">
-        <v>397.6292392479589</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>441.900558318119</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C13" t="n">
-        <v>441.900558318119</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D13" t="n">
-        <v>441.900558318119</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="E13" t="n">
-        <v>441.900558318119</v>
+        <v>289.7833290482027</v>
       </c>
       <c r="F13" t="n">
-        <v>295.0106108202086</v>
+        <v>142.8933815502924</v>
       </c>
       <c r="G13" t="n">
-        <v>295.0106108202086</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>441.900558318119</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.900558318119</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5281,49 +5281,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028587</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,25 +5503,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5600,13 +5600,13 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341676</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028587</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5767,19 +5767,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5834,16 +5834,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>410.8745301331627</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1313.597763704656</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1089.812348494162</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>800.6837097077201</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V22" t="n">
-        <v>545.9992215018333</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -5992,22 +5992,22 @@
         <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6074,13 +6074,13 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181194</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X25" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y25" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,22 +6211,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.0324822735073</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C28" t="n">
-        <v>337.0962993456004</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D28" t="n">
-        <v>337.0962993456004</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E28" t="n">
-        <v>189.1832057632073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170374</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735073</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>292.8275092861696</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>539.5926371926337</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>846.9127704725952</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,10 +6779,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
         <v>891.4406401619858</v>
@@ -6928,19 +6928,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7019,25 +7019,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775518</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>161.8892719520374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>161.8892719520374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>161.8892719520374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>161.8892719520374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>874.9271131227918</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>620.2426249169049</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>330.8254548799443</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X37" t="n">
-        <v>330.8254548799443</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7183,7 +7183,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>981.5095496229244</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783515</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978191</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627447</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,19 +9482,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>124.3400780863225</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>253.7371603504733</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9722,16 +9722,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978191</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>5.100663089359955</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978231</v>
+        <v>85.30006332127834</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>283.6093329825492</v>
+        <v>85.30006332127829</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>121.2740412742711</v>
       </c>
       <c r="H13" t="n">
-        <v>63.51748966548462</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>216.0876643102804</v>
       </c>
     </row>
     <row r="17">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>29.89407122271322</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,19 +24177,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>14.4554881988891</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>140.3375291694985</v>
       </c>
       <c r="X25" t="n">
-        <v>176.3280338692824</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.94407814005706</v>
       </c>
       <c r="F28" t="n">
-        <v>54.37459486303901</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24657,7 +24657,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>50.96659166315999</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>102.4681097765436</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>44.27839330891794</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>103.0576765518772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>3.1414521615946</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,13 +26076,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="F2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="G2" t="n">
+        <v>782058.1194754181</v>
+      </c>
+      <c r="H2" t="n">
+        <v>782058.119475418</v>
+      </c>
+      <c r="I2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="J2" t="n">
         <v>782058.1194754178</v>
-      </c>
-      <c r="G2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="H2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="I2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="J2" t="n">
-        <v>782058.1194754175</v>
       </c>
       <c r="K2" t="n">
         <v>782058.1194754175</v>
       </c>
       <c r="L2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754174</v>
       </c>
       <c r="N2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754174</v>
       </c>
       <c r="O2" t="n">
         <v>782058.1194754177</v>
@@ -26377,16 +26377,16 @@
         <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>3.137572960064251e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.861628258540616e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925927</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26487,13 +26487,13 @@
         <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8560.145664893353</v>
+        <v>-8560.145664893469</v>
       </c>
       <c r="C6" t="n">
-        <v>581407.7335496512</v>
+        <v>581407.7335496511</v>
       </c>
       <c r="D6" t="n">
         <v>581407.733549651</v>
       </c>
       <c r="E6" t="n">
-        <v>148890.4961686442</v>
+        <v>149767.6283023937</v>
       </c>
       <c r="F6" t="n">
-        <v>674050.5326455404</v>
+        <v>674927.6647792899</v>
       </c>
       <c r="G6" t="n">
-        <v>674050.5326455405</v>
+        <v>674927.6647792901</v>
       </c>
       <c r="H6" t="n">
-        <v>674050.5326455404</v>
+        <v>674927.6647792902</v>
       </c>
       <c r="I6" t="n">
-        <v>674050.5326455405</v>
+        <v>674927.6647792899</v>
       </c>
       <c r="J6" t="n">
-        <v>497627.3134529475</v>
+        <v>498504.4455866973</v>
       </c>
       <c r="K6" t="n">
-        <v>674050.5326455402</v>
+        <v>674927.6647792897</v>
       </c>
       <c r="L6" t="n">
-        <v>674050.5326455407</v>
+        <v>674927.6647792897</v>
       </c>
       <c r="M6" t="n">
-        <v>539249.5174117032</v>
+        <v>540126.6495454526</v>
       </c>
       <c r="N6" t="n">
-        <v>674050.5326455405</v>
+        <v>674927.6647792896</v>
       </c>
       <c r="O6" t="n">
-        <v>674050.5326455403</v>
+        <v>674927.6647792899</v>
       </c>
       <c r="P6" t="n">
-        <v>674050.5326455402</v>
+        <v>674927.6647792897</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.921966200080314e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.921966200080314e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.921966200080314e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>115.6152529948201</v>
       </c>
       <c r="G2" t="n">
-        <v>81.84225668071605</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>85.14112624278593</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>82.02264908530594</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>96.31138778415693</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>141.9938968421883</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.3317290956556</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>255.0197959140366</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>303.6383668238965</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>143.5275491670321</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>151.3442930716737</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.797032151054893e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262118</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35497,10 +35497,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35664,13 +35664,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35737,16 +35737,16 @@
         <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958063</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315248</v>
@@ -36135,7 +36135,7 @@
         <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951466</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109124</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>274.9155166742618</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>564.1615374009397</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315248</v>
@@ -36442,16 +36442,16 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958063</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315248</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>155.6761016772992</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36922,19 +36922,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37387,28 +37387,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>278.7330645958066</v>
+        <v>334.5577682773026</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>594.0337100330154</v>
+        <v>395.7244403717445</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37873,16 +37873,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
